--- a/teaching/traditional_assets/database/data/poland/poland_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_insurance_general.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.14</v>
+        <v>0.101</v>
       </c>
       <c r="E2">
-        <v>0.00347</v>
+        <v>-0.07780000000000001</v>
       </c>
       <c r="G2">
-        <v>0.2713167982906341</v>
+        <v>0.252101731968866</v>
       </c>
       <c r="H2">
-        <v>0.2713167982906341</v>
+        <v>0.2521013550441944</v>
       </c>
       <c r="I2">
-        <v>0.230602164934006</v>
+        <v>0.1972852000527694</v>
       </c>
       <c r="J2">
-        <v>0.1800921771592881</v>
+        <v>0.1405497290206908</v>
       </c>
       <c r="K2">
-        <v>791.62</v>
+        <v>555.03</v>
       </c>
       <c r="L2">
-        <v>0.08291472023797056</v>
+        <v>0.05230112512014473</v>
       </c>
       <c r="M2">
-        <v>1142.894</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1248211877133106</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.443740683661353</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1142.894</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1248211877133106</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.443740683661353</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>2188.66</v>
+        <v>2260.35</v>
       </c>
       <c r="V2">
-        <v>0.2390345392491467</v>
+        <v>0.3004302398683628</v>
       </c>
       <c r="W2">
-        <v>0.2040811021575253</v>
+        <v>0.1437819776547979</v>
       </c>
       <c r="X2">
-        <v>0.07157947098071608</v>
+        <v>0.07635137176111639</v>
       </c>
       <c r="Y2">
-        <v>0.1325016311768092</v>
+        <v>0.06743060589368155</v>
       </c>
       <c r="Z2">
-        <v>1.208751293651</v>
+        <v>1.435978901845954</v>
       </c>
       <c r="AA2">
-        <v>0.2054035178700387</v>
+        <v>0.1832507642036471</v>
       </c>
       <c r="AB2">
-        <v>0.05404533446414053</v>
+        <v>0.05004852750165143</v>
       </c>
       <c r="AC2">
-        <v>0.1513581834058981</v>
+        <v>0.1352663844618457</v>
       </c>
       <c r="AD2">
-        <v>6719.47</v>
+        <v>7691.29</v>
       </c>
       <c r="AE2">
-        <v>277.5944525453555</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6997.064452545355</v>
+        <v>7691.29</v>
       </c>
       <c r="AG2">
-        <v>4808.404452545356</v>
+        <v>5430.940000000001</v>
       </c>
       <c r="AH2">
-        <v>0.4331658665533373</v>
+        <v>0.5055070653959908</v>
       </c>
       <c r="AI2">
-        <v>0.4239780605139687</v>
+        <v>0.4125544638791102</v>
       </c>
       <c r="AJ2">
-        <v>0.344326776497425</v>
+        <v>0.4192270729043239</v>
       </c>
       <c r="AK2">
-        <v>0.3359066523857119</v>
+        <v>0.331503765548376</v>
       </c>
       <c r="AL2">
-        <v>552.8879999999999</v>
+        <v>402.127</v>
       </c>
       <c r="AM2">
-        <v>552.5079999999999</v>
+        <v>401.902</v>
       </c>
       <c r="AN2">
-        <v>2.707760441012911</v>
+        <v>3.397107863272779</v>
       </c>
       <c r="AO2">
-        <v>3.942154649766319</v>
+        <v>5.206390021062997</v>
       </c>
       <c r="AP2">
-        <v>1.937653916304807</v>
+        <v>2.398750922012129</v>
       </c>
       <c r="AQ2">
-        <v>3.944865956692031</v>
+        <v>5.209304755885763</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.142</v>
+        <v>0.101</v>
       </c>
       <c r="E3">
-        <v>0.212</v>
+        <v>-0.07780000000000001</v>
       </c>
       <c r="G3">
-        <v>0.1132075471698113</v>
+        <v>0.16078125</v>
       </c>
       <c r="H3">
-        <v>0.1132075471698113</v>
+        <v>0.1606770833333333</v>
       </c>
       <c r="I3">
-        <v>0.1581761006289308</v>
+        <v>0.09531250000000001</v>
       </c>
       <c r="J3">
-        <v>0.1324566666666667</v>
+        <v>0.06833726415094341</v>
       </c>
       <c r="K3">
-        <v>4.12</v>
+        <v>2.73</v>
       </c>
       <c r="L3">
-        <v>0.129559748427673</v>
+        <v>0.07109375</v>
       </c>
       <c r="M3">
-        <v>0.594</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.01331838565022422</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1441747572815534</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>0.594</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.01331838565022422</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.1441747572815534</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="V3">
-        <v>0.0304932735426009</v>
+        <v>0.04375</v>
       </c>
       <c r="W3">
-        <v>0.403921568627451</v>
+        <v>0.21328125</v>
       </c>
       <c r="X3">
-        <v>0.05544161539049043</v>
+        <v>0.05101576118657218</v>
       </c>
       <c r="Y3">
-        <v>0.3484799532369606</v>
+        <v>0.1622654888134278</v>
       </c>
       <c r="Z3">
-        <v>2.517814726840855</v>
+        <v>2.681564245810056</v>
       </c>
       <c r="AA3">
-        <v>0.3335013460015836</v>
+        <v>0.1832507642036471</v>
       </c>
       <c r="AB3">
-        <v>0.05298040493185451</v>
+        <v>0.04749335870246536</v>
       </c>
       <c r="AC3">
-        <v>0.2805209410697291</v>
+        <v>0.1357574055011818</v>
       </c>
       <c r="AD3">
-        <v>6.67</v>
+        <v>6.59</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.67</v>
+        <v>6.59</v>
       </c>
       <c r="AG3">
-        <v>5.31</v>
+        <v>4.91</v>
       </c>
       <c r="AH3">
-        <v>0.130095572459528</v>
+        <v>0.1464769948877528</v>
       </c>
       <c r="AI3">
-        <v>0.3425783256291731</v>
+        <v>0.2917220008853475</v>
       </c>
       <c r="AJ3">
-        <v>0.1063915047084752</v>
+        <v>0.1133687370122374</v>
       </c>
       <c r="AK3">
-        <v>0.293208172280508</v>
+        <v>0.2348158775705404</v>
       </c>
       <c r="AL3">
-        <v>0.239</v>
+        <v>0.201</v>
       </c>
       <c r="AM3">
-        <v>0.192</v>
+        <v>0.177</v>
       </c>
       <c r="AN3">
-        <v>1.221611721611722</v>
+        <v>1.651629072681704</v>
       </c>
       <c r="AO3">
-        <v>21.04602510460251</v>
+        <v>18.2089552238806</v>
       </c>
       <c r="AP3">
-        <v>0.9725274725274725</v>
+        <v>1.230576441102757</v>
       </c>
       <c r="AQ3">
-        <v>26.19791666666667</v>
+        <v>20.67796610169491</v>
       </c>
     </row>
     <row r="4">
@@ -859,121 +853,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.14</v>
+        <v>0.154</v>
       </c>
       <c r="E4">
-        <v>0.00347</v>
+        <v>-0.0101</v>
       </c>
       <c r="G4">
-        <v>0.2717766732656586</v>
+        <v>0.2524387702915159</v>
       </c>
       <c r="H4">
-        <v>0.2717766732656586</v>
+        <v>0.2524387702915159</v>
       </c>
       <c r="I4">
-        <v>0.2308855049798796</v>
+        <v>0.1976966643304984</v>
       </c>
       <c r="J4">
-        <v>0.1701795626535296</v>
+        <v>0.1292163711428461</v>
       </c>
       <c r="K4">
-        <v>785.1</v>
+        <v>550.8</v>
       </c>
       <c r="L4">
-        <v>0.0826734341434649</v>
+        <v>0.05216600685696967</v>
       </c>
       <c r="M4">
-        <v>1142.3</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.1254268553797503</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>1.454973888676602</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>1142.3</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.1254268553797503</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>1.454973888676602</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>2184.2</v>
+        <v>2256.1</v>
       </c>
       <c r="V4">
-        <v>0.2398295872541807</v>
+        <v>0.3016458759509579</v>
       </c>
       <c r="W4">
-        <v>0.2040811021575253</v>
+        <v>0.1437819776547979</v>
       </c>
       <c r="X4">
-        <v>0.07157947098071608</v>
+        <v>0.07635137176111639</v>
       </c>
       <c r="Y4">
-        <v>0.1325016311768092</v>
+        <v>0.06743060589368155</v>
       </c>
       <c r="Z4">
-        <v>1.20698111258061</v>
+        <v>1.434144221235212</v>
       </c>
       <c r="AA4">
-        <v>0.2054035178700387</v>
+        <v>0.1853149119634971</v>
       </c>
       <c r="AB4">
-        <v>0.05404533446414053</v>
+        <v>0.05004852750165143</v>
       </c>
       <c r="AC4">
-        <v>0.1513581834058981</v>
+        <v>0.1352663844618457</v>
       </c>
       <c r="AD4">
-        <v>6697.5</v>
+        <v>7671.1</v>
       </c>
       <c r="AE4">
-        <v>277.5944525453555</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>6975.094452545355</v>
+        <v>7671.1</v>
       </c>
       <c r="AG4">
-        <v>4790.894452545355</v>
+        <v>5415</v>
       </c>
       <c r="AH4">
-        <v>0.4337099474289669</v>
+        <v>0.5063298658781286</v>
       </c>
       <c r="AI4">
-        <v>0.4238505638402537</v>
+        <v>0.4125578143487146</v>
       </c>
       <c r="AJ4">
-        <v>0.3447134423758143</v>
+        <v>0.4199530024894721</v>
       </c>
       <c r="AK4">
-        <v>0.3356779436183042</v>
+        <v>0.3314379449011195</v>
       </c>
       <c r="AL4">
-        <v>551.8</v>
+        <v>401.1</v>
       </c>
       <c r="AM4">
-        <v>551.8</v>
+        <v>401.1</v>
       </c>
       <c r="AN4">
-        <v>2.710002427773731</v>
+        <v>3.398653138983652</v>
       </c>
       <c r="AO4">
-        <v>3.933490395070678</v>
+        <v>5.204188481675392</v>
       </c>
       <c r="AP4">
-        <v>1.938534617037046</v>
+        <v>2.399096185370608</v>
       </c>
       <c r="AQ4">
-        <v>3.933490395070678</v>
+        <v>5.204188481675392</v>
       </c>
     </row>
     <row r="5">
@@ -993,28 +984,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.067</v>
+        <v>-0.0767</v>
       </c>
       <c r="E5">
-        <v>-0.0563</v>
+        <v>-0.245</v>
       </c>
       <c r="G5">
-        <v>0.3057291666666667</v>
+        <v>0.2486842105263158</v>
       </c>
       <c r="H5">
-        <v>0.3057291666666667</v>
+        <v>0.2486842105263158</v>
       </c>
       <c r="I5">
-        <v>0.2104166666666667</v>
+        <v>0.1690789473684211</v>
       </c>
       <c r="J5">
-        <v>0.161688596491228</v>
+        <v>0.1296271929824561</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>0.125</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1038,73 +1029,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
       <c r="V5">
-        <v>0.7126436781609197</v>
+        <v>0.4276206322795341</v>
       </c>
       <c r="W5">
-        <v>0.1655172413793103</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="X5">
-        <v>0.1436207945880852</v>
+        <v>0.11305561922871</v>
       </c>
       <c r="Y5">
-        <v>0.02189644679122513</v>
+        <v>0.01406302483908664</v>
       </c>
       <c r="Z5">
-        <v>1.06430155210643</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="AA5">
-        <v>0.1720854242035243</v>
+        <v>0.1448774509803921</v>
       </c>
       <c r="AB5">
-        <v>0.06571875476393632</v>
+        <v>0.05570014211773108</v>
       </c>
       <c r="AC5">
-        <v>0.106366669439588</v>
+        <v>0.08917730886266106</v>
       </c>
       <c r="AD5">
-        <v>15.3</v>
+        <v>13.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>15.3</v>
+        <v>13.6</v>
       </c>
       <c r="AG5">
-        <v>12.2</v>
+        <v>11.03</v>
       </c>
       <c r="AH5">
-        <v>0.7786259541984734</v>
+        <v>0.6935237123916369</v>
       </c>
       <c r="AI5">
-        <v>0.5583941605839416</v>
+        <v>0.5132075471698113</v>
       </c>
       <c r="AJ5">
-        <v>0.7371601208459215</v>
+        <v>0.6473004694835681</v>
       </c>
       <c r="AK5">
-        <v>0.5020576131687243</v>
+        <v>0.4609277058086084</v>
       </c>
       <c r="AL5">
-        <v>0.849</v>
+        <v>0.826</v>
       </c>
       <c r="AM5">
-        <v>0.516</v>
+        <v>0.625</v>
       </c>
       <c r="AN5">
-        <v>3.25531914893617</v>
+        <v>4.563758389261745</v>
       </c>
       <c r="AO5">
-        <v>4.758539458186101</v>
+        <v>3.11138014527845</v>
       </c>
       <c r="AP5">
-        <v>2.595744680851064</v>
+        <v>3.701342281879195</v>
       </c>
       <c r="AQ5">
-        <v>7.829457364341085</v>
+        <v>4.112</v>
       </c>
     </row>
   </sheetData>
